--- a/Bibliografia/Listagem 1.xlsx
+++ b/Bibliografia/Listagem 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bbliografia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="892" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8BEF0A9-BD71-4049-B0E1-048AD1418D15}"/>
+  <xr:revisionPtr revIDLastSave="895" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2F79E2C-F8C8-48AF-9022-8C859DBA7627}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="337">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1100,6 +1100,12 @@
   </si>
   <si>
     <t>1) Estudo descritivo ecológico</t>
+  </si>
+  <si>
+    <t>1) Médias móveis trienais
+2) Regressão de Poisson
+3) testada a sobredispersão dos dados (comando poisgof)
+4) Regressão binomial negativa</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2194,7 +2200,7 @@
       </c>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2225,9 @@
       <c r="H18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="16" t="s">
+        <v>336</v>
+      </c>
       <c r="J18" s="18" t="s">
         <v>48</v>
       </c>

--- a/Bibliografia/Listagem 1.xlsx
+++ b/Bibliografia/Listagem 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a8628a50772066/R/ICSAP/Bibliografia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="895" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2F79E2C-F8C8-48AF-9022-8C859DBA7627}"/>
+  <xr:revisionPtr revIDLastSave="904" documentId="8_{A970F4A6-B25B-4E0A-B438-2B0FA64B278E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C9A51005-7912-41D6-B6DD-E4E46BB808E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{92966055-116D-42DB-900B-B75A724BA527}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="337">
   <si>
     <t>Palavra-chave</t>
   </si>
@@ -1600,12 +1600,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE712DB-CC69-4EE6-896B-656C736DF159}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1663,7 +1662,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1693,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1760,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>240</v>
       </c>
@@ -1799,7 +1798,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>72</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>67</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>109</v>
       </c>
@@ -1906,7 +1905,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>82</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -2009,6 +2008,9 @@
       <c r="K11" s="18" t="s">
         <v>134</v>
       </c>
+      <c r="L11" s="18" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
@@ -2041,7 +2043,7 @@
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>256</v>
       </c>
@@ -2077,7 +2079,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
@@ -2136,7 +2138,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>121</v>
       </c>
@@ -2199,6 +2201,9 @@
         <v>48</v>
       </c>
       <c r="K17" s="15"/>
+      <c r="L17" s="18" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
@@ -2232,8 +2237,11 @@
         <v>48</v>
       </c>
       <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>252</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>243</v>
       </c>
@@ -2292,7 +2300,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
@@ -2361,7 +2369,7 @@
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>88</v>
       </c>
@@ -2430,7 +2438,7 @@
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -2530,7 +2538,7 @@
       </c>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:12" ht="108" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>126</v>
       </c>
@@ -2597,7 +2605,7 @@
       </c>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>261</v>
       </c>
@@ -2628,7 +2636,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>264</v>
       </c>
@@ -2664,7 +2672,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>270</v>
       </c>
@@ -2695,7 +2703,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>276</v>
       </c>
@@ -2726,7 +2734,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>281</v>
       </c>
@@ -2754,7 +2762,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="1:11" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>288</v>
       </c>
@@ -2810,7 +2818,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:11" ht="36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>306</v>
       </c>
@@ -2838,7 +2846,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>314</v>
       </c>
@@ -2866,7 +2874,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>321</v>
       </c>
@@ -5151,16 +5159,7 @@
       <c r="J227" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="B1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L39" xr:uid="{B3F1C4F4-92F8-4D45-9CD2-F8D7A5E8BEF7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K227">
     <sortCondition ref="A2:A227"/>
   </sortState>
